--- a/data/expt_2/raw_transcripts/game73.xlsx
+++ b/data/expt_2/raw_transcripts/game73.xlsx
@@ -1,64 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0094.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0094.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="156">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, and now if you ever want to leave the game room, just let me know, okay?</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>id134</t>
-  </si>
-  <si>
-    <t>Alright.</t>
-  </si>
-  <si>
-    <t>But I think we're gonna finish.</t>
-  </si>
-  <si>
-    <t>id133</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I think we're gonna finish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve"> Let's, I think it's a fun game, so yeah.</t>
@@ -67,10 +76,10 @@
     <t xml:space="preserve"> So today we're gonna be playing a matching game, but before that, we're gonna practice touching our screens and play the game with popping bubbles.</t>
   </si>
   <si>
-    <t>So you can press the blue button on your screen and then pop all of the bubbles that you see.</t>
-  </si>
-  <si>
-    <t>Done.</t>
+    <t xml:space="preserve">So you can press the blue button on your screen and then pop all of the bubbles that you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice, you can help the yellow ones too.</t>
@@ -82,7 +91,7 @@
     <t xml:space="preserve"> Wow, you guys are really fast on popping bubbles.</t>
   </si>
   <si>
-    <t>Good job.</t>
+    <t xml:space="preserve">Good job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice, thats Smurphy right there.</t>
@@ -91,7 +100,7 @@
     <t xml:space="preserve"> Great job, guys.</t>
   </si>
   <si>
-    <t>Thank you.</t>
+    <t xml:space="preserve">Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now I'm going to explain the matching game.</t>
@@ -100,25 +109,25 @@
     <t xml:space="preserve"> So in the matching game, it's your job to help my friend Smurphy.</t>
   </si>
   <si>
-    <t>This is Smurphy.</t>
-  </si>
-  <si>
-    <t>Do you want to say hi?</t>
-  </si>
-  <si>
-    <t>Hi.</t>
+    <t xml:space="preserve">This is Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.</t>
   </si>
   <si>
     <t xml:space="preserve"> On your screen, you'll each se two pictures. For One of you, you'll see a picture inside of a black box.</t>
   </si>
   <si>
-    <t>It's Smurphy's job to guess which picture is inside of the black box and he needs your help.</t>
+    <t xml:space="preserve">It's Smurphy's job to guess which picture is inside of the black box and he needs your help.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you have the black box on your screen, you're the teller, and it is your job to tell</t>
   </si>
   <si>
-    <t>the other person what you see in the black box.</t>
+    <t xml:space="preserve">the other person what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> So this person would say, banana.</t>
@@ -127,13 +136,13 @@
     <t xml:space="preserve"> Now, if you're the guesser, it is your job to guess what the other person is saying so that you can guess for Smurphy.</t>
   </si>
   <si>
-    <t>So you're holding Smurphy and you're guessing for him.</t>
+    <t xml:space="preserve">So you're holding Smurphy and you're guessing for him.</t>
   </si>
   <si>
     <t xml:space="preserve"> So if someone tells you banana,</t>
   </si>
   <si>
-    <t>then you press banana on your screen to guess.</t>
+    <t xml:space="preserve">then you press banana on your screen to guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you get, oh, let's not press the button yet.</t>
@@ -157,7 +166,7 @@
     <t xml:space="preserve"> to get it right. Now, again, if you have the black box, what are you?</t>
   </si>
   <si>
-    <t>Banana.</t>
+    <t xml:space="preserve">Banana.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you have the black box, you have the teller.</t>
@@ -166,7 +175,7 @@
     <t xml:space="preserve"> And if you're holding Smurphy, then what are you?</t>
   </si>
   <si>
-    <t>The guesser?</t>
+    <t xml:space="preserve">The guesser?</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly, you're the guesser.</t>
@@ -175,142 +184,142 @@
     <t xml:space="preserve"> Alright, that means you guys get it. So, you can start.</t>
   </si>
   <si>
-    <t>So you can press the blue button and start playing.</t>
+    <t xml:space="preserve">So you can press the blue button and start playing.</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now who is the black box?</t>
   </si>
   <si>
-    <t>You do? So that means you're the guesser.</t>
+    <t xml:space="preserve">You do? So that means you're the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, [id134], do you want to tell [id133] what you see inside the black box?</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Mhmm.</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Great job.</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mhmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now we pass Smurphy</t>
   </si>
   <si>
-    <t>Bullseye</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Do you want to tell [id134] what you see in the black box?</t>
-  </si>
-  <si>
-    <t>I see a bird in the black box.</t>
-  </si>
-  <si>
-    <t>Now you want to guess [id134]?</t>
-  </si>
-  <si>
-    <t>Did you hear what [id133] said?</t>
-  </si>
-  <si>
-    <t>Uh-huh.</t>
+    <t xml:space="preserve">Bullseye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to tell [id134] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a bird in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you want to guess [id134]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you hear what [id133] said?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh-huh.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, now you can just guess.</t>
   </si>
   <si>
-    <t>By tapping on your screen</t>
-  </si>
-  <si>
-    <t>Yay</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>You got it [id134]!</t>
+    <t xml:space="preserve">By tapping on your screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got it [id134]!</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice job, guys.</t>
   </si>
   <si>
-    <t>Do you want to say what you see in the black box [id134]?</t>
-  </si>
-  <si>
-    <t>A house.</t>
-  </si>
-  <si>
-    <t>A house</t>
-  </si>
-  <si>
-    <t>Nice job.</t>
-  </si>
-  <si>
-    <t>You're guessing for Smurphy!</t>
+    <t xml:space="preserve">Do you want to say what you see in the black box [id134]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're guessing for Smurphy!</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, I see a duck in the black box.</t>
   </si>
   <si>
-    <t>Mm duck?</t>
-  </si>
-  <si>
-    <t>Duck</t>
-  </si>
-  <si>
-    <t>I can't help you but if that's what you think it is then you can tap it. nice job</t>
+    <t xml:space="preserve">Mm duck?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't help you but if that's what you think it is then you can tap it. nice job</t>
   </si>
   <si>
     <t xml:space="preserve">see you got it. that was the duck </t>
   </si>
   <si>
-    <t>I see a person</t>
-  </si>
-  <si>
-    <t>A person</t>
-  </si>
-  <si>
-    <t>in a black box</t>
-  </si>
-  <si>
-    <t>nice job!</t>
-  </si>
-  <si>
-    <t>Bullseye!</t>
-  </si>
-  <si>
-    <t>I see a person, holding a triangle in the black box</t>
-  </si>
-  <si>
-    <t>A person holding a triangle</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>so you can guess. Nice job</t>
-  </si>
-  <si>
-    <t>Spider.</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Yes!</t>
-  </si>
-  <si>
-    <t>A... a person.</t>
+    <t xml:space="preserve">I see a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in a black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullseye!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person, holding a triangle in the black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding a triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so you can guess. Nice job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A... a person.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's okay.</t>
@@ -319,127 +328,130 @@
     <t xml:space="preserve"> Okay, you can pass Smurphy</t>
   </si>
   <si>
-    <t>Airplane.</t>
-  </si>
-  <si>
-    <t>Airplane</t>
-  </si>
-  <si>
-    <t>Airplane?</t>
-  </si>
-  <si>
-    <t>I don't have an airplane. This one? Aw</t>
-  </si>
-  <si>
-    <t>That's okay.</t>
-  </si>
-  <si>
-    <t>You can try again later.</t>
-  </si>
-  <si>
-    <t>Biscuit</t>
-  </si>
-  <si>
-    <t>It looks like someone jumping off the floor.</t>
-  </si>
-  <si>
-    <t>Someone jumping off the floor</t>
+    <t xml:space="preserve">Airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't have an airplane. This one? Aw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can try again later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biscuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like someone jumping off the floor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone jumping off the floor</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright guys, try your best to guess</t>
   </si>
   <si>
-    <t>Person.</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Aw hat's okay.</t>
-  </si>
-  <si>
-    <t>That was a hard one because there were two drells</t>
-  </si>
-  <si>
-    <t>It's a person.</t>
-  </si>
-  <si>
-    <t>Yes! You got it, got it, got it!</t>
-  </si>
-  <si>
-    <t>Got it!</t>
-  </si>
-  <si>
-    <t>Got it! Got it!</t>
+    <t xml:space="preserve">Person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aw hat's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was a hard one because there were two drells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes! You got it, got it, got it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got it! Got it!</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, do you want to say what you see in the black box [id134]?</t>
   </si>
   <si>
-    <t>A person.</t>
-  </si>
-  <si>
-    <t>Hmm.</t>
-  </si>
-  <si>
-    <t>Nice job</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>That was easy because I got a black box.</t>
-  </si>
-  <si>
-    <t>Do you want to say what you see in the black box now?</t>
+    <t xml:space="preserve">A person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was easy because I got a black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say what you see in the black box now?</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, I find someone jumping</t>
   </si>
   <si>
-    <t>Someone jumping</t>
+    <t xml:space="preserve">Someone jumping</t>
   </si>
   <si>
     <t xml:space="preserve">Nice job. </t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>Finally I got the airplane!</t>
-  </si>
-  <si>
-    <t>Yay.</t>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally I got the airplane!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay.</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, human.</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Woo!</t>
-  </si>
-  <si>
-    <t>A human but two triangles</t>
-  </si>
-  <si>
-    <t>I... It looks like a human, but two triangles.</t>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I... It looks like a human, but two triangles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human but two triangles</t>
   </si>
   <si>
     <t xml:space="preserve"> Kind of like the one that you saw airplane?</t>
   </si>
   <si>
-    <t>Does that have a triangle?</t>
-  </si>
-  <si>
-    <t>Easy.</t>
-  </si>
-  <si>
-    <t>I got it.</t>
+    <t xml:space="preserve">airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does that have a triangle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, why?</t>
@@ -454,13 +466,13 @@
     <t xml:space="preserve"> Wow, you guys finished my game.</t>
   </si>
   <si>
-    <t>Thank you so much.</t>
-  </si>
-  <si>
-    <t>Murphy's so happy.</t>
-  </si>
-  <si>
-    <t>He says thank you.</t>
+    <t xml:space="preserve">Thank you so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He says thank you.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, what is it for?</t>
@@ -469,13 +481,13 @@
     <t xml:space="preserve"> Oh, that's just for the teachers.</t>
   </si>
   <si>
-    <t>It doesn't matter.</t>
-  </si>
-  <si>
-    <t>But thank you guys so much.</t>
-  </si>
-  <si>
-    <t>Let's go out.</t>
+    <t xml:space="preserve">It doesn't matter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But thank you guys so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go out.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, but remember I have to put your name text back on.</t>
@@ -484,18 +496,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,249 +536,87 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H153" activeCellId="0" sqref="H153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="59.25"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="9.63"/>
-    <col customWidth="1" min="6" max="6" width="13.5"/>
-    <col customWidth="1" min="8" max="8" width="29.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,12 +642,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -785,12 +656,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -799,12 +670,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -813,12 +684,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>9000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -827,12 +698,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>10000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -841,12 +712,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>11000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -855,12 +726,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>11000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>13000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -869,12 +740,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>13000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>21000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>13000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>21000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -883,12 +754,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>21000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>26000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>21000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>26000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -897,12 +768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>26000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>27000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>26000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>27000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -911,12 +782,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>27000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>28000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>27000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>28000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -925,12 +796,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>28000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>28000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>30000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -939,12 +810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>30000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>32000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>32000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -953,12 +824,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>32000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>35000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>35000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -967,12 +838,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>36000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>36000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -981,12 +852,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>36000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>37000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>36000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>37000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
@@ -995,12 +866,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>37000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>38000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>38000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -1009,12 +880,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>38000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>39000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>39000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -1023,12 +894,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>39000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>39000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>40000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
@@ -1037,12 +908,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>41000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>41000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -1051,12 +922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>41000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -1065,12 +936,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>44000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>47000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>47000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -1079,12 +950,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>47000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>48000.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>47000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>48000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -1093,12 +964,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>48000.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>49000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>49000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -1107,12 +978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>49000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>50000.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>49000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>50000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -1121,12 +992,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>53500.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>53500</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -1135,12 +1006,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>53500.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>59200.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>53500</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>59200</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -1149,12 +1020,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>59200.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>64600.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>59200</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>64600</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
@@ -1163,12 +1034,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>64600.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>67300.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>67300</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
@@ -1177,12 +1048,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>67300.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>70400.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>67300</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>70400</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
@@ -1191,12 +1062,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>70400.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>76800.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>70400</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>76800</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
@@ -1205,12 +1076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>76800.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>79980.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>76800</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>79980</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
@@ -1219,12 +1090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>79980.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>82540.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>79980</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>82540</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
@@ -1233,12 +1104,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>82540.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>85900.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>82540</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>85900</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
@@ -1247,12 +1118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>85900.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>89260.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>85900</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>89260</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
@@ -1261,12 +1132,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>89260.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>91260.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>89260</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>91260</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
@@ -1275,12 +1146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>91260.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>94760.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>91260</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>94760</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
@@ -1289,12 +1160,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>94760.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>96700.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>94760</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>96700</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -1303,12 +1174,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>96700.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>99360.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>96700</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>99360</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -1317,12 +1188,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>99360.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>101480.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>99360</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>101480</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
@@ -1331,12 +1202,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>101480.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>106480.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>101480</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>106480</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>47</v>
@@ -1345,12 +1216,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>106480.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>107480.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>106480</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>107480</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>48</v>
@@ -1359,12 +1230,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>107480.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>111480.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>107480</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>111480</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>49</v>
@@ -1373,12 +1244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>111480.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>114480.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>111480</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>114480</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>50</v>
@@ -1387,12 +1258,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>114480.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>116480.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>114480</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>116480</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
@@ -1401,12 +1272,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>116480.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>118480.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>116480</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>118480</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
@@ -1415,12 +1286,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>118480.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>121480.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>118480</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>121480</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>53</v>
@@ -1429,12 +1300,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>121480.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>124480.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>121480</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>124480</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>54</v>
@@ -1443,12 +1314,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>124480.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>128480.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>124480</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>128480</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
@@ -1456,16 +1327,16 @@
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>128480.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>130480.0</v>
+      <c r="E50" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>128480</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>130480</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>56</v>
@@ -1474,12 +1345,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>130480.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>134080.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>130480</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>134080</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>57</v>
@@ -1488,12 +1359,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>130480.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>134080.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>130480</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>134080</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>48</v>
@@ -1508,12 +1379,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>130480.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>134080.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>130480</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>134080</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
@@ -1525,12 +1396,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>139120.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>140160.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>139120</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>140160</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
@@ -1538,16 +1409,16 @@
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>141040.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>142240.0</v>
+      <c r="E55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>141040</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>142240</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -1556,12 +1427,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>142240.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>142800.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>142240</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>142800</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1573,12 +1444,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>145520.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>145960.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>145520</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>145960</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
@@ -1593,12 +1464,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>148720.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>150400.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>148720</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>150400</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
@@ -1607,12 +1478,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>150400.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>152880.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>150400</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>152880</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1624,12 +1495,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>152880.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>153360.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>152880</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>153360</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
@@ -1638,12 +1509,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>154560.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>155840.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>154560</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>155840</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
@@ -1652,12 +1523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>157120.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>158320.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>157120</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>158320</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>69</v>
@@ -1666,12 +1537,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>158320.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>158960.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>158320</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>158960</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>70</v>
@@ -1683,12 +1554,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>158960.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>160000.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>158960</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>160000</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>71</v>
@@ -1697,12 +1568,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>160000.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>162000.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>160000</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>162000</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
@@ -1711,12 +1582,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>162000.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>163000.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>162000</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>163000</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
@@ -1724,16 +1595,16 @@
       <c r="D67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>163000.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>165000.0</v>
+      <c r="E67" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>163000</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>165000</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>75</v>
@@ -1745,12 +1616,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>165000.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>167000.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>165000</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>167000</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>76</v>
@@ -1759,12 +1630,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>167000.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>174000.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>167000</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>174000</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>77</v>
@@ -1773,12 +1644,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>174000.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>177000.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>174000</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>177000</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>78</v>
@@ -1793,12 +1664,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>177000.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>178000.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>177000</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>178000</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>80</v>
@@ -1806,16 +1677,16 @@
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>178000.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>180000.0</v>
+      <c r="E72" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>178000</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>180000</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>81</v>
@@ -1824,12 +1695,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>180000.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>186000.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>186000</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>82</v>
@@ -1841,12 +1712,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>186000.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>188000.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>186000</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>188000</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>83</v>
@@ -1861,12 +1732,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>189000.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>193240.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>189000</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>193240</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>85</v>
@@ -1875,12 +1746,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>193240.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>201000.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>193240</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>201000</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>86</v>
@@ -1888,19 +1759,19 @@
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="1">
-        <v>4.0</v>
+      <c r="E77" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>193240.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>201000.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>193240</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>201000</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>87</v>
@@ -1915,12 +1786,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>201000.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>205000.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>201000</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>205000</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
@@ -1932,12 +1803,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>205000.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>208000.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>205000</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>208000</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>90</v>
@@ -1945,16 +1816,16 @@
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>205000.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>208000.0</v>
+      <c r="E80" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>205000</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>208000</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>91</v>
@@ -1966,12 +1837,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>208000.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>215000.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>208000</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>215000</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>92</v>
@@ -1986,12 +1857,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>215000.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>218000.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>215000</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>218000</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>94</v>
@@ -2003,12 +1874,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>218000.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>219000.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>218000</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>219000</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>95</v>
@@ -2016,16 +1887,16 @@
       <c r="D84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>221000.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>222000.0</v>
+      <c r="E84" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>221000</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>222000</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -2040,12 +1911,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>222000.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>225000.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>222000</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>225000</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>80</v>
@@ -2054,12 +1925,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>222000.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>225000.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>222000</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>225000</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -2071,12 +1942,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>239000.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>241000.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>239000</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>241000</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>23</v>
@@ -2084,16 +1955,16 @@
       <c r="D88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>241000.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>247000.0</v>
+      <c r="E88" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>241000</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>247000</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -2108,12 +1979,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>247000.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>250000.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>247000</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>250000</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>100</v>
@@ -2121,16 +1992,16 @@
       <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>250000.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>254000.0</v>
+      <c r="E90" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>254000</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>101</v>
@@ -2139,12 +2010,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>254000.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>256000.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>254000</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>256000</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>102</v>
@@ -2159,12 +2030,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>256000.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>257000.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>256000</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>257000</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
@@ -2176,12 +2047,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>257000.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>258000.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>257000</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>258000</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
@@ -2193,12 +2064,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>258000.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>261000.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>258000</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>261000</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>105</v>
@@ -2210,12 +2081,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>261000.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>263000.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>261000</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>263000</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>106</v>
@@ -2224,12 +2095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>263000.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>265000.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>263000</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>265000</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>107</v>
@@ -2237,16 +2108,16 @@
       <c r="D97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>265000.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>271000.0</v>
+      <c r="E97" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>265000</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>271000</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>108</v>
@@ -2258,12 +2129,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>271000.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>275000.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>271000</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>275000</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>109</v>
@@ -2278,12 +2149,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>275000.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>277000.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>275000</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>277000</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>100</v>
@@ -2292,12 +2163,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>277000.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>280000.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>277000</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>280000</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>111</v>
@@ -2305,16 +2176,16 @@
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>280000.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>281000.0</v>
+      <c r="E101" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>280000</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>281000</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>112</v>
@@ -2329,12 +2200,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>281000.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>286000.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>281000</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>286000</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>114</v>
@@ -2342,16 +2213,16 @@
       <c r="D103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>290000.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>294000.0</v>
+      <c r="E103" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>290000</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>294000</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>115</v>
@@ -2363,12 +2234,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>294000.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>299000.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>294000</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>299000</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>116</v>
@@ -2383,12 +2254,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>299000.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>304000.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>299000</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>304000</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>80</v>
@@ -2396,16 +2267,16 @@
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>304000.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>306000.0</v>
+      <c r="E106" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>304000</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>306000</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>117</v>
@@ -2417,12 +2288,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>306000.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>307000.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>306000</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>307000</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>118</v>
@@ -2434,12 +2305,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>307000.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>308000.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>307000</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>308000</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>119</v>
@@ -2451,12 +2322,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>308000.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>312000.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>308000</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>312000</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>120</v>
@@ -2465,12 +2336,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>312000.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>314000.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>312000</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>314000</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>121</v>
@@ -2485,12 +2356,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>314000.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>315000.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>314000</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>315000</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>122</v>
@@ -2502,12 +2373,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>319000.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>320000.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>319000</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>320000</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>123</v>
@@ -2515,16 +2386,16 @@
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>320000.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>321000.0</v>
+      <c r="E113" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>320000</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>321000</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>124</v>
@@ -2536,12 +2407,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>321000.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>322000.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>321000</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>322000</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>124</v>
@@ -2553,12 +2424,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>322000.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>325000.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>322000</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>325000</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>125</v>
@@ -2570,12 +2441,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>325000.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>328000.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>325000</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>328000</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>126</v>
@@ -2584,12 +2455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>328000.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>333000.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>328000</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>333000</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>127</v>
@@ -2604,12 +2475,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>333000.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>336000.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>333000</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>336000</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>129</v>
@@ -2617,16 +2488,16 @@
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>333000.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>336000.0</v>
+      <c r="E119" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>333000</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>336000</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>130</v>
@@ -2638,12 +2509,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>336000.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>337000.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>336000</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>337000</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>124</v>
@@ -2655,12 +2526,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>337000.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>340000.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>337000</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>340000</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>102</v>
@@ -2675,12 +2546,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>340000.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>341000.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>340000</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>341000</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>131</v>
@@ -2688,16 +2559,16 @@
       <c r="D123" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E123" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>341000.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>343000.0</v>
+      <c r="E123" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>341000</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>343000</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>80</v>
@@ -2706,12 +2577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>343000.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>347000.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>343000</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>347000</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>132</v>
@@ -2723,12 +2594,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>343000.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>347000.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>343000</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>347000</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>131</v>
@@ -2740,12 +2611,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>347000.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>348000.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>347000</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>348000</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>133</v>
@@ -2754,12 +2625,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>348000.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>349000.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>348000</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>349000</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>80</v>
@@ -2769,12 +2640,12 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>349000.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>351000.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>349000</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>351000</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>134</v>
@@ -2789,12 +2660,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>351000.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>353000.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>351000</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>353000</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>80</v>
@@ -2802,16 +2673,16 @@
       <c r="D130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>354000.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>358000.0</v>
+      <c r="E130" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>354000</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>358000</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>135</v>
@@ -2826,12 +2697,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>358000.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>360000.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>358000</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>360000</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>136</v>
@@ -2840,12 +2711,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>360000.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>361000.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>360000</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>361000</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>124</v>
@@ -2853,16 +2724,16 @@
       <c r="D133" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>361000.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>362000.0</v>
+      <c r="E133" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>361000</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>362000</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>80</v>
@@ -2870,33 +2741,33 @@
       <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="1" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>362000</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>372500</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>362000.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>372500.0</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>372500.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>376500.0</v>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>372500</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>376500</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>139</v>
@@ -2907,13 +2778,16 @@
       <c r="F136" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>377500.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>381500.0</v>
+      <c r="H136" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>377500</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>381500</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>100</v>
@@ -2921,19 +2795,19 @@
       <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>381500.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>384500.0</v>
+      <c r="E137" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>381500</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>384500</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
@@ -2942,12 +2816,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>384500.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>385500.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>384500</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>385500</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>10</v>
@@ -2956,15 +2830,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>385500.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>386500.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>385500</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>386500</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>11</v>
@@ -2973,12 +2847,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>386500.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>388500.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>386500</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>388500</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>96</v>
@@ -2993,12 +2867,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>390500.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>391500.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>390500</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>391500</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>131</v>
@@ -3007,12 +2881,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>390500.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>391500.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>390500</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>391500</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>98</v>
@@ -3024,12 +2898,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>391500.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>393500.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>391500</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>393500</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>80</v>
@@ -3037,19 +2911,19 @@
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>393500.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>395500.0</v>
+      <c r="E144" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>393500</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>395500</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
@@ -3058,15 +2932,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>399500.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>402500.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>399500</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>402500</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
@@ -3075,15 +2949,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>402500.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>405500.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>402500</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>405500</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
@@ -3095,15 +2969,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>405500.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>407500.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>405500</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>407500</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
@@ -3112,12 +2986,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>405500.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>407500.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>405500</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>407500</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>98</v>
@@ -3129,12 +3003,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>407500.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>408500.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>407500</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>408500</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>62</v>
@@ -3143,138 +3017,138 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>408500.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>413500.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>408500</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>413500</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>413500.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>414500.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>413500</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>414500</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>414500.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>415500.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>414500</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>415500</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>415500.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>417500.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>415500</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>417500</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>417500.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>419500.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>417500</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>419500</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>419500.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>423500.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>419500</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>423500</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>423500.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>424500.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>423500</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>424500</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>424500.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>426500.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>424500</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>426500</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>426500.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>427500.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>426500</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>427500</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>427500.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>428500.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>427500</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>428500</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>15</v>
@@ -3283,21 +3157,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>428500.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>430500.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>428500</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>430500</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game73.xlsx
+++ b/data/expt_2/raw_transcripts/game73.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MVI_0094.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="MVI_0094.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">Biscuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit</t>
   </si>
   <si>
     <t xml:space="preserve">It looks like someone jumping off the floor.</t>
@@ -573,12 +576,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,2580 +601,2689 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H153" activeCellId="0" sqref="H153"/>
+      <selection pane="bottomLeft" activeCell="F157" activeCellId="0" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="59.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>11000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>11000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>26000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>26000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>35000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>35000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>36000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>36000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>39000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>39000</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>48000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>48000</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>53500</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>53500</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>59200</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>59200</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>64600</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>64600</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>67300</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>67300</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>70400</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>70400</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>76800</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>76800</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>79980</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>79980</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>82540</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>82540</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>85900</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>85900</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>89260</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>89260</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>91260</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>91260</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>94760</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>94760</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>96700</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>96700</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>99360</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>99360</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>101480</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>101480</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>106480</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>106480</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>107480</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>107480</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>111480</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>111480</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>114480</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>114480</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>116480</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>116480</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>118480</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>118480</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>121480</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>121480</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>124480</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>124480</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>128480</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="n">
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>128480</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>130480</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>130480</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>134080</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>130480</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>134080</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="F53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>130480</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>134080</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>139120</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>140160</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="n">
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>141040</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>142240</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>142240</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>142800</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>145520</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>145960</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>148720</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>150400</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>150400</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>152880</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>152880</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>153360</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>154560</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>155840</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>157120</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>158320</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>158320</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>158960</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>158960</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>160000</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>160000</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>162000</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>162000</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>163000</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>163000</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>165000</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>165000</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>167000</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>167000</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>174000</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>174000</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>177000</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="F71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>177000</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>178000</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="n">
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>178000</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>180000</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>180000</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>186000</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>186000</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>188000</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>189000</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>193240</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>193240</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>201000</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="n">
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>193240</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>201000</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="F78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>201000</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>205000</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>205000</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>208000</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1" t="n">
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>205000</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>208000</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>208000</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>215000</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>215000</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>218000</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>218000</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>219000</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="1" t="n">
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>221000</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>222000</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="F85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>222000</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>225000</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>222000</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>225000</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>239000</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>241000</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="1" t="n">
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>241000</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>247000</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="D89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>247000</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>250000</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="1" t="n">
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>250000</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>254000</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>254000</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>256000</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H92" s="1" t="s">
+      <c r="F92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>256000</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>257000</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>257000</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>258000</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>258000</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>261000</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>261000</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>263000</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>263000</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>265000</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="1" t="n">
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>265000</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>271000</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>58</v>
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>271000</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>275000</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>275000</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>277000</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>277000</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>280000</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="1" t="n">
+      <c r="C101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>280000</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>281000</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>281000</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>286000</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="n">
+      <c r="C103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>290000</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>294000</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="C104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>294000</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>299000</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="1" t="s">
+      <c r="C105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>299000</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>304000</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="1" t="n">
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>304000</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>306000</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="C107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>306000</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>307000</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="C108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>307000</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>308000</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="C109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>308000</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>312000</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>312000</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>314000</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="1" t="s">
+      <c r="F111" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>314000</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>315000</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="C112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>319000</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>320000</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="n">
+      <c r="C113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>320000</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>321000</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="C114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>321000</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>322000</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>322000</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>325000</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>325000</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>328000</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>328000</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>333000</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>333000</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>336000</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>333000</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>336000</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>336000</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>337000</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>325000</v>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>328000</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>328000</v>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>333000</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>333000</v>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>336000</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>333000</v>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>336000</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>337000</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>340000</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>340000</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>341000</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>341000</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>343000</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>343000</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>347000</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>343000</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>347000</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>336000</v>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>337000</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D121" s="1" t="s">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>347000</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>348000</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>348000</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>349000</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>349000</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>351000</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>351000</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>353000</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>354000</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>358000</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>337000</v>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>340000</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="F131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>358000</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>360000</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>360000</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>361000</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>361000</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>362000</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>362000</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>372500</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>372500</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>377500</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>381500</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>381500</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>384500</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>384500</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>385500</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>340000</v>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>341000</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" s="1" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>385500</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>386500</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>386500</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>388500</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>390500</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>391500</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E123" s="1" t="n">
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>390500</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>391500</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>391500</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>393500</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>393500</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>395500</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>399500</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>402500</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>402500</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>405500</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>405500</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>407500</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>405500</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>407500</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
+        <v>407500</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>408500</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
+        <v>408500</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>413500</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
+        <v>413500</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>414500</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
+        <v>414500</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>415500</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
+        <v>415500</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>417500</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
+        <v>417500</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>419500</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
+        <v>419500</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>423500</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
+        <v>423500</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>424500</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
+        <v>424500</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>426500</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
+        <v>426500</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>427500</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
+        <v>427500</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>428500</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>341000</v>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>343000</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>343000</v>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>347000</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>343000</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>347000</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>347000</v>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>348000</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>348000</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>349000</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>349000</v>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>351000</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>351000</v>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>353000</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>354000</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>358000</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>358000</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>360000</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>360000</v>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>361000</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>361000</v>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>362000</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>362000</v>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>372500</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>372500</v>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>376500</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>377500</v>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>381500</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>381500</v>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>384500</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>384500</v>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>385500</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>385500</v>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>386500</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>386500</v>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>388500</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>390500</v>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>391500</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>390500</v>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>391500</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>391500</v>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>393500</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>393500</v>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>395500</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>399500</v>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>402500</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>402500</v>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>405500</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>405500</v>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>407500</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>405500</v>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>407500</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>407500</v>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>408500</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>408500</v>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>413500</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>413500</v>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>414500</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>414500</v>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>415500</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
-        <v>415500</v>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>417500</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
-        <v>417500</v>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>419500</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
-        <v>419500</v>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>423500</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
-        <v>423500</v>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>424500</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>424500</v>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>426500</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>426500</v>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>427500</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>427500</v>
-      </c>
-      <c r="B160" s="1" t="n">
+      <c r="D160" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>428500</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>428500</v>
-      </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>430500</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game73.xlsx
+++ b/data/expt_2/raw_transcripts/game73.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, and now if you ever want to leave the game room, just let me know, okay?</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Mhmm.</t>
@@ -576,7 +582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,6 +592,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,12 +722,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F157" activeCellId="0" sqref="F157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F160" activeCellId="0" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,6 +764,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -763,10 +776,10 @@
         <v>5000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +790,10 @@
         <v>6000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,10 +804,10 @@
         <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,10 +818,10 @@
         <v>9000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,10 +832,10 @@
         <v>10000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,10 +846,10 @@
         <v>11000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,10 +860,10 @@
         <v>13000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,10 +874,10 @@
         <v>21000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,10 +888,10 @@
         <v>26000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,10 +902,10 @@
         <v>27000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,10 +916,10 @@
         <v>28000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,10 +930,10 @@
         <v>30000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,10 +944,10 @@
         <v>32000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,10 +958,10 @@
         <v>35000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,10 +972,10 @@
         <v>36000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,10 +986,10 @@
         <v>37000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,10 +1000,10 @@
         <v>38000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,10 +1014,10 @@
         <v>39000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,10 +1028,10 @@
         <v>40000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +1042,10 @@
         <v>41000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,10 +1056,10 @@
         <v>44000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,10 +1070,10 @@
         <v>47000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,10 +1084,10 @@
         <v>48000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,10 +1098,10 @@
         <v>49000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,10 +1112,10 @@
         <v>50000</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,10 +1126,10 @@
         <v>53500</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,10 +1140,10 @@
         <v>59200</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,10 +1154,10 @@
         <v>64600</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,10 +1168,10 @@
         <v>67300</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,10 +1182,10 @@
         <v>70400</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,10 +1196,10 @@
         <v>76800</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,10 +1210,10 @@
         <v>79980</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,10 +1224,10 @@
         <v>82540</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,10 +1238,10 @@
         <v>85900</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,10 +1252,10 @@
         <v>89260</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,10 +1266,10 @@
         <v>91260</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,10 +1280,10 @@
         <v>94760</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,10 +1294,10 @@
         <v>96700</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,10 +1308,10 @@
         <v>99360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,10 +1322,10 @@
         <v>101480</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,10 +1336,10 @@
         <v>106480</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,10 +1350,10 @@
         <v>107480</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,10 +1364,10 @@
         <v>111480</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,10 +1378,10 @@
         <v>114480</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,10 +1392,10 @@
         <v>116480</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,10 +1406,10 @@
         <v>118480</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,10 +1420,10 @@
         <v>121480</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,10 +1434,10 @@
         <v>124480</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,10 +1448,10 @@
         <v>128480</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>0</v>
@@ -1452,10 +1465,10 @@
         <v>130480</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1479,10 @@
         <v>134080</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,16 +1493,19 @@
         <v>134080</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,13 +1516,13 @@
         <v>134080</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,10 +1533,10 @@
         <v>140160</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
@@ -1534,10 +1550,10 @@
         <v>142240</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,13 +1564,13 @@
         <v>142800</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,16 +1581,19 @@
         <v>145960</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,10 +1604,10 @@
         <v>150400</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,13 +1618,16 @@
         <v>152880</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,10 +1638,10 @@
         <v>153360</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,10 +1652,10 @@
         <v>155840</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,10 +1666,10 @@
         <v>158320</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,13 +1680,13 @@
         <v>158960</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,10 +1697,10 @@
         <v>160000</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,10 +1711,10 @@
         <v>162000</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,10 +1725,10 @@
         <v>163000</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>2</v>
@@ -1720,13 +1742,13 @@
         <v>165000</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,10 +1759,10 @@
         <v>167000</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1773,10 @@
         <v>174000</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,16 +1787,19 @@
         <v>177000</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,10 +1810,10 @@
         <v>178000</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>3</v>
@@ -1802,10 +1827,10 @@
         <v>180000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,13 +1841,16 @@
         <v>186000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,16 +1861,19 @@
         <v>188000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,10 +1884,10 @@
         <v>193240</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,15 +1898,18 @@
         <v>201000</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1887,16 +1921,19 @@
         <v>201000</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,13 +1944,16 @@
         <v>205000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,10 +1964,10 @@
         <v>208000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>5</v>
@@ -1941,13 +1981,13 @@
         <v>208000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,16 +1998,19 @@
         <v>215000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,13 +2021,13 @@
         <v>218000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,10 +2038,10 @@
         <v>219000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>6</v>
@@ -2012,16 +2055,19 @@
         <v>222000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,10 +2078,10 @@
         <v>225000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,14 +2092,12 @@
         <v>225000</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
@@ -2063,10 +2107,10 @@
         <v>241000</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>7</v>
@@ -2080,16 +2124,19 @@
         <v>247000</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2147,10 @@
         <v>250000</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>8</v>
@@ -2117,10 +2164,10 @@
         <v>254000</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,16 +2178,19 @@
         <v>256000</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,12 +2201,15 @@
         <v>257000</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2168,13 +2221,16 @@
         <v>258000</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,12 +2241,15 @@
         <v>261000</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2202,10 +2261,10 @@
         <v>263000</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,10 +2275,10 @@
         <v>265000</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>9</v>
@@ -2233,16 +2292,19 @@
         <v>271000</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,16 +2315,19 @@
         <v>275000</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,10 +2338,10 @@
         <v>277000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,10 +2352,10 @@
         <v>280000</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>10</v>
@@ -2304,16 +2369,19 @@
         <v>281000</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +2392,10 @@
         <v>286000</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>11</v>
@@ -2341,13 +2409,16 @@
         <v>294000</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,16 +2429,19 @@
         <v>299000</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,10 +2452,10 @@
         <v>304000</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>12</v>
@@ -2395,13 +2469,13 @@
         <v>306000</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,13 +2486,13 @@
         <v>307000</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,13 +2503,13 @@
         <v>308000</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,10 +2520,10 @@
         <v>312000</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,16 +2534,19 @@
         <v>314000</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,13 +2557,13 @@
         <v>315000</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2574,10 @@
         <v>320000</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>13</v>
@@ -2514,13 +2591,13 @@
         <v>321000</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,13 +2608,13 @@
         <v>322000</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,13 +2625,16 @@
         <v>325000</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2645,10 @@
         <v>328000</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,16 +2659,19 @@
         <v>333000</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2682,10 @@
         <v>336000</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>14</v>
@@ -2616,13 +2699,13 @@
         <v>336000</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,13 +2716,13 @@
         <v>337000</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,16 +2733,19 @@
         <v>340000</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,10 +2756,10 @@
         <v>341000</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>15</v>
@@ -2687,10 +2773,10 @@
         <v>343000</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,13 +2787,16 @@
         <v>347000</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,13 +2807,13 @@
         <v>347000</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,10 +2824,10 @@
         <v>348000</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2838,10 @@
         <v>349000</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -2764,16 +2853,19 @@
         <v>351000</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2876,10 @@
         <v>353000</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>16</v>
@@ -2801,16 +2893,19 @@
         <v>358000</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,10 +2916,10 @@
         <v>360000</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,10 +2930,10 @@
         <v>361000</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>17</v>
@@ -2852,10 +2947,10 @@
         <v>362000</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,16 +2961,19 @@
         <v>372500</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,16 +2984,19 @@
         <v>376500</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +3007,10 @@
         <v>381500</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>18</v>
@@ -2923,12 +3024,15 @@
         <v>384500</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2940,10 +3044,10 @@
         <v>385500</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,13 +3058,13 @@
         <v>386500</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,16 +3075,19 @@
         <v>388500</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,10 +3098,10 @@
         <v>391500</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,13 +3112,13 @@
         <v>391500</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3129,10 @@
         <v>393500</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>19</v>
@@ -3039,13 +3146,13 @@
         <v>395500</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,13 +3163,16 @@
         <v>402500</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,16 +3183,19 @@
         <v>405500</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,13 +3206,16 @@
         <v>407500</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,13 +3226,13 @@
         <v>407500</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3243,10 @@
         <v>408500</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,10 +3257,10 @@
         <v>413500</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,10 +3271,10 @@
         <v>414500</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3285,10 @@
         <v>415500</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,10 +3299,10 @@
         <v>417500</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,10 +3313,13 @@
         <v>419500</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3330,10 @@
         <v>423500</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +3344,10 @@
         <v>424500</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,10 +3358,10 @@
         <v>426500</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,10 +3372,13 @@
         <v>427500</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3389,10 @@
         <v>428500</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3403,10 @@
         <v>430500</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game73.xlsx
+++ b/data/expt_2/raw_transcripts/game73.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -595,7 +595,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,9 +725,9 @@
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F160" activeCellId="0" sqref="F160"/>
+      <selection pane="bottomLeft" activeCell="F141" activeCellId="0" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,6 +2938,9 @@
       <c r="E133" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="F133" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
@@ -3048,6 +3051,9 @@
       </c>
       <c r="D139" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/expt_2/raw_transcripts/game73.xlsx
+++ b/data/expt_2/raw_transcripts/game73.xlsx
@@ -277,10 +277,10 @@
     <t xml:space="preserve"> Uh, I see a duck in the black box.</t>
   </si>
   <si>
+    <t xml:space="preserve">Duck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mm duck?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duck</t>
   </si>
   <si>
     <t xml:space="preserve">I can't help you but if that's what you think it is then you can tap it. nice job</t>
@@ -725,9 +725,9 @@
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F141" activeCellId="0" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,6 +1849,9 @@
       <c r="F74" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="H74" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I74" s="3" t="s">
         <v>61</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>188000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>12</v>
@@ -1869,9 +1872,7 @@
       <c r="F75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="H75" s="2"/>
       <c r="I75" s="3" t="s">
         <v>61</v>
       </c>
